--- a/MIDI_Sax/Sax_details.xlsx
+++ b/MIDI_Sax/Sax_details.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\DIY-Projects\MIDI_Sax\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDCCDB0-2DAD-4CE0-B357-CCFCEA3A3B47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F25AEA7-347E-4EEC-8D51-DD95EC71332F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33915" yWindow="2340" windowWidth="21600" windowHeight="12735" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
+    <workbookView xWindow="4005" yWindow="885" windowWidth="21600" windowHeight="12735" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>C#</t>
   </si>
@@ -93,16 +93,19 @@
     <t>Float</t>
   </si>
   <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>Log</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>log10(float)</t>
+    <t>float^0.5</t>
+  </si>
+  <si>
+    <t>float^0.25</t>
+  </si>
+  <si>
+    <t>float^2</t>
+  </si>
+  <si>
+    <t>Using Negatives to allow for sqrt(negative)</t>
   </si>
 </sst>
 </file>
@@ -172,6 +175,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU"/>
+              <a:t>Breath Scaling</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -247,41 +275,77 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$26</c:f>
+              <c:f>Sheet1!$B$16:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>-1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="20">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -289,42 +353,78 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$C$26</c:f>
+              <c:f>Sheet1!$C$16:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>9.7751710654936461E-4</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9550342130987292E-3</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.9100684261974585E-3</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.8201368523949169E-3</c:v>
+                  <c:v>-0.125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5640273704789834E-2</c:v>
+                  <c:v>-6.25E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1280547409579668E-2</c:v>
+                  <c:v>-3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2561094819159335E-2</c:v>
+                  <c:v>-1.5625E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12512218963831867</c:v>
+                  <c:v>-7.8125E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25024437927663734</c:v>
+                  <c:v>-3.90625E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50048875855327468</c:v>
+                  <c:v>-1.953125E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.0009775171065494</c:v>
+                  <c:v>-9.765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.90625E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.8125E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -344,9 +444,6 @@
               <c:f>Sheet1!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Exp</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -376,41 +473,77 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$26</c:f>
+              <c:f>Sheet1!$B$16:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>-1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="20">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -418,43 +551,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$D$26</c:f>
+              <c:f>Sheet1!$D$16:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1.0009779950321103</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0019569465385034</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0039177227167613</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.007850793984808</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0157632229358082</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0317749250689403</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0645594960010174</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1332869205259399</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.2843392442351682</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.6495272942825632</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.720940294583154</c:v>
-                </c:pt>
+                <c:ptCount val="23"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -473,9 +573,6 @@
               <c:f>Sheet1!$E$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Log</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -505,41 +602,77 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$26</c:f>
+              <c:f>Sheet1!$B$16:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>-1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="13">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="14">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="15">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="17">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="18">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="19">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="20">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="22">
                   <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
@@ -547,43 +680,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$16:$E$26</c:f>
+              <c:f>Sheet1!$E$16:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.3010299956639812</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6020599913279624</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90308998699194354</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2041199826559248</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.505149978319906</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8061799739838871</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.1072099696478683</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.4082399653118496</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.7092699609758308</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.0102999566398121</c:v>
-                </c:pt>
+                <c:ptCount val="23"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -591,6 +691,609 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-607C-40DB-B8A5-87774595522A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float^0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$16:$F$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.70710678118654757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.35355339059327379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.17677669529663689</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.8388347648318447E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-4.4194173824159223E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.125E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4194173824159223E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.8388347648318447E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17677669529663689</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35355339059327379</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.70710678118654757</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3536-4997-B603-1E901748EC98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float^0.25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$16:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.8408964152537145</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.70710678118654757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.59460355750136051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.42044820762685725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.35355339059327379</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.29730177875068031</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.21022410381342865</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.17677669529663689</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17677669529663689</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21022410381342865</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29730177875068031</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.35355339059327379</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42044820762685725</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.59460355750136051</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.70710678118654757</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.8408964152537145</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3536-4997-B603-1E901748EC98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>float^2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-256</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1024</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$16:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.90625E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.44140625E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.103515625E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.52587890625E-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-3.814697265625E-6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.5367431640625E-7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5367431640625E-7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.814697265625E-6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.52587890625E-5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.103515625E-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.44140625E-4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.765625E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.90625E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5625E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3536-4997-B603-1E901748EC98}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1372,16 +2075,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>471487</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>404812</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1706,15 +2409,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00263F9-C8C7-42DF-8462-CEECFF97E7F1}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -2186,9 +2890,25 @@
         <v>119</v>
       </c>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.25</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -2196,289 +2916,547 @@
       <c r="C15" t="s">
         <v>18</v>
       </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
       <c r="B16">
-        <f>2^A16</f>
-        <v>1</v>
+        <v>-1024</v>
       </c>
       <c r="C16">
-        <f>B16/1023</f>
-        <v>9.7751710654936461E-4</v>
-      </c>
-      <c r="D16">
-        <f>EXP(C16)</f>
-        <v>1.0009779950321103</v>
-      </c>
-      <c r="E16">
-        <f>LOG10(B16)</f>
-        <v>0</v>
+        <f t="shared" ref="C16:C20" si="1">B16/1024</f>
+        <v>-1</v>
       </c>
       <c r="F16">
-        <f>LOG10(C16)</f>
-        <v>-3.0098756337121602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
+        <f t="shared" ref="F16:F17" si="2">-((-C16)^$F$14)</f>
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ref="G16:G17" si="3">-(-C16^$G$14)</f>
+        <v>-1</v>
+      </c>
+      <c r="H16">
+        <f>-(C16^$H$14)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17">
-        <f t="shared" ref="B17:B26" si="1">2^A17</f>
-        <v>2</v>
+        <v>-512</v>
       </c>
       <c r="C17">
-        <f t="shared" ref="C17:C32" si="2">B17/1023</f>
-        <v>1.9550342130987292E-3</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:D32" si="3">EXP(C17)</f>
-        <v>1.0019569465385034</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ref="E17:E32" si="4">LOG10(B17)</f>
-        <v>0.3010299956639812</v>
+        <f t="shared" si="1"/>
+        <v>-0.5</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F26" si="5">LOG10(C17)</f>
-        <v>-2.7088456380481789</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>-0.70710678118654757</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="3"/>
+        <v>-0.8408964152537145</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H26" si="4">-(C17^$H$14)</f>
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18">
+        <v>-256</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="2"/>
-        <v>3.9100684261974585E-3</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="3"/>
-        <v>1.0039177227167613</v>
-      </c>
-      <c r="E18">
+        <v>-0.25</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ref="F18:F20" si="5">-((-C18)^$F$14)</f>
+        <v>-0.5</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ref="G18:G20" si="6">-(-C18^$G$14)</f>
+        <v>-0.70710678118654757</v>
+      </c>
+      <c r="H18">
         <f t="shared" si="4"/>
-        <v>0.6020599913279624</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="5"/>
-        <v>-2.4078156423841977</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
+        <v>-6.25E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19">
+        <v>-128</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="2"/>
-        <v>7.8201368523949169E-3</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="3"/>
-        <v>1.007850793984808</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="4"/>
-        <v>0.90308998699194354</v>
+        <v>-0.125</v>
       </c>
       <c r="F19">
         <f t="shared" si="5"/>
-        <v>-2.1067856467202164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>4</v>
-      </c>
+        <v>-0.35355339059327379</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="6"/>
+        <v>-0.59460355750136051</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>-1.5625E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20">
+        <v>-64</v>
+      </c>
+      <c r="C20">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="C20">
-        <f t="shared" si="2"/>
-        <v>1.5640273704789834E-2</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="3"/>
-        <v>1.0157632229358082</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="4"/>
-        <v>1.2041199826559248</v>
+        <v>-6.25E-2</v>
       </c>
       <c r="F20">
         <f t="shared" si="5"/>
-        <v>-1.8057556510562354</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+        <v>-0.25</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="6"/>
+        <v>-0.5</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>-3.90625E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>-32</v>
+      </c>
+      <c r="C21">
+        <f>B21/1024</f>
+        <v>-3.125E-2</v>
+      </c>
+      <c r="F21">
+        <f>-((-C21)^$F$14)</f>
+        <v>-0.17677669529663689</v>
+      </c>
+      <c r="G21">
+        <f>-(-C21^$G$14)</f>
+        <v>-0.42044820762685725</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>-9.765625E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>-16</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:C38" si="7">B22/1024</f>
+        <v>-1.5625E-2</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ref="F22:F27" si="8">-((-C22)^$F$14)</f>
+        <v>-0.125</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ref="G22:G27" si="9">-(-C22^$G$14)</f>
+        <v>-0.35355339059327379</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>-2.44140625E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>-8</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="7"/>
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="8"/>
+        <v>-8.8388347648318447E-2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="9"/>
+        <v>-0.29730177875068031</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>-6.103515625E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>-4</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="7"/>
+        <v>-3.90625E-3</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="8"/>
+        <v>-6.25E-2</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="9"/>
+        <v>-0.25</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>-1.52587890625E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>-2</v>
+      </c>
+      <c r="B25">
+        <v>-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="7"/>
+        <v>-1.953125E-3</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="8"/>
+        <v>-4.4194173824159223E-2</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="9"/>
+        <v>-0.21022410381342865</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>-3.814697265625E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>-1</v>
+      </c>
+      <c r="B26">
+        <v>-1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="7"/>
+        <v>-9.765625E-4</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="8"/>
+        <v>-3.125E-2</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="9"/>
+        <v>-0.17677669529663689</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>-9.5367431640625E-7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>C27^$F$14</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>C27^$G$14</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H21:H27" si="10">C27^$H$14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <f>2^A28</f>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="7"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="F28">
+        <f>C28^$F$14</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="G28">
+        <f>C28^$G$14</f>
+        <v>0.17677669529663689</v>
+      </c>
+      <c r="H28">
+        <f>C28^$H$14</f>
+        <v>9.5367431640625E-7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:B38" si="11">2^A29</f>
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="7"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F38" si="12">C29^$F$14</f>
+        <v>4.4194173824159223E-2</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G38" si="13">C29^$G$14</f>
+        <v>0.21022410381342865</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H38" si="14">C29^$H$14</f>
+        <v>3.814697265625E-6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="7"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="12"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="13"/>
+        <v>0.25</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="14"/>
+        <v>1.52587890625E-5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="7"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="12"/>
+        <v>8.8388347648318447E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="13"/>
+        <v>0.29730177875068031</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="14"/>
+        <v>6.103515625E-5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="7"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="12"/>
+        <v>0.125</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="13"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="14"/>
+        <v>2.44140625E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
         <v>5</v>
       </c>
-      <c r="B21">
-        <f t="shared" si="1"/>
+      <c r="B33">
+        <f t="shared" si="11"/>
         <v>32</v>
       </c>
-      <c r="C21">
-        <f t="shared" si="2"/>
-        <v>3.1280547409579668E-2</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="3"/>
-        <v>1.0317749250689403</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="4"/>
-        <v>1.505149978319906</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="5"/>
-        <v>-1.5047256553922541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="C33">
+        <f t="shared" si="7"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="12"/>
+        <v>0.17677669529663689</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="13"/>
+        <v>0.42044820762685725</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="14"/>
+        <v>9.765625E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
         <v>6</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="1"/>
+      <c r="B34">
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
-      <c r="C22">
-        <f t="shared" si="2"/>
-        <v>6.2561094819159335E-2</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="3"/>
-        <v>1.0645594960010174</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="4"/>
-        <v>1.8061799739838871</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="5"/>
-        <v>-1.2036956597282731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="C34">
+        <f t="shared" si="7"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="13"/>
+        <v>0.5</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="14"/>
+        <v>3.90625E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>7</v>
       </c>
-      <c r="B23">
-        <f t="shared" si="1"/>
+      <c r="B35">
+        <f t="shared" si="11"/>
         <v>128</v>
       </c>
-      <c r="C23">
-        <f t="shared" si="2"/>
-        <v>0.12512218963831867</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="3"/>
-        <v>1.1332869205259399</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="4"/>
-        <v>2.1072099696478683</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="5"/>
-        <v>-0.90266566406429183</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="C35">
+        <f t="shared" si="7"/>
+        <v>0.125</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="12"/>
+        <v>0.35355339059327379</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="13"/>
+        <v>0.59460355750136051</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="14"/>
+        <v>1.5625E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>8</v>
       </c>
-      <c r="B24">
-        <f t="shared" si="1"/>
+      <c r="B36">
+        <f t="shared" si="11"/>
         <v>256</v>
       </c>
-      <c r="C24">
-        <f t="shared" si="2"/>
-        <v>0.25024437927663734</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="3"/>
-        <v>1.2843392442351682</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="4"/>
-        <v>2.4082399653118496</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="5"/>
-        <v>-0.60163566840031057</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="C36">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="13"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="14"/>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
         <v>9</v>
       </c>
-      <c r="B25">
-        <f t="shared" si="1"/>
+      <c r="B37">
+        <f t="shared" si="11"/>
         <v>512</v>
       </c>
-      <c r="C25">
-        <f t="shared" si="2"/>
-        <v>0.50048875855327468</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="3"/>
-        <v>1.6495272942825632</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="4"/>
-        <v>2.7092699609758308</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="5"/>
-        <v>-0.30060567273632938</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="C37">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="12"/>
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="13"/>
+        <v>0.8408964152537145</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="14"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
         <v>10</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="1"/>
+      <c r="B38">
+        <f t="shared" si="11"/>
         <v>1024</v>
       </c>
-      <c r="C26">
-        <f t="shared" si="2"/>
-        <v>1.0009775171065494</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="3"/>
-        <v>2.720940294583154</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="4"/>
-        <v>3.0102999566398121</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="5"/>
-        <v>4.2432292765179407E-4</v>
+      <c r="C38">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/MIDI_Sax/Sax_details.xlsx
+++ b/MIDI_Sax/Sax_details.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim\Documents\GitHub\DIY-Projects\MIDI_Sax\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tim/Documents/GitHub/DIY-Projects/MIDI_Sax/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F25AEA7-347E-4EEC-8D51-DD95EC71332F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96FC5E2-BD7F-B343-A092-2E52F992EE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="885" windowWidth="21600" windowHeight="12735" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
+    <workbookView xWindow="2400" yWindow="460" windowWidth="22840" windowHeight="15540" activeTab="1" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Leonardo" sheetId="1" r:id="rId1"/>
+    <sheet name="Doppler" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>C#</t>
   </si>
@@ -107,12 +108,63 @@
   <si>
     <t>Using Negatives to allow for sqrt(negative)</t>
   </si>
+  <si>
+    <t>Bb</t>
+  </si>
+  <si>
+    <t>Octave Calculations</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t>AnalogRead</t>
+  </si>
+  <si>
+    <t>Thresholds</t>
+  </si>
+  <si>
+    <t>Midi Adjust</t>
+  </si>
+  <si>
+    <t>+24</t>
+  </si>
+  <si>
+    <t>+12</t>
+  </si>
+  <si>
+    <t>-12</t>
+  </si>
+  <si>
+    <t>+0</t>
+  </si>
+  <si>
+    <t>Home Octave With no buttons pressed</t>
+  </si>
+  <si>
+    <t>+1 Octave</t>
+  </si>
+  <si>
+    <t>+2 Octaves</t>
+  </si>
+  <si>
+    <t>-1 Octave</t>
+  </si>
+  <si>
+    <t>Octave Adjust</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,13 +172,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7128"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEF9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -141,13 +212,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -163,7 +269,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -240,7 +346,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$15</c:f>
+              <c:f>Leonardo!$C$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -275,7 +381,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$38</c:f>
+              <c:f>Leonardo!$B$16:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -353,7 +459,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$16:$C$38</c:f>
+              <c:f>Leonardo!$C$16:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -441,7 +547,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$15</c:f>
+              <c:f>Leonardo!$D$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -473,7 +579,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$38</c:f>
+              <c:f>Leonardo!$B$16:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -551,7 +657,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$16:$D$38</c:f>
+              <c:f>Leonardo!$D$16:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -570,7 +676,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$15</c:f>
+              <c:f>Leonardo!$E$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -602,7 +708,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$38</c:f>
+              <c:f>Leonardo!$B$16:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -680,7 +786,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$16:$E$38</c:f>
+              <c:f>Leonardo!$E$16:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -699,7 +805,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$15</c:f>
+              <c:f>Leonardo!$F$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -734,7 +840,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$38</c:f>
+              <c:f>Leonardo!$B$16:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -812,7 +918,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$16:$F$38</c:f>
+              <c:f>Leonardo!$F$16:$F$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -900,7 +1006,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$15</c:f>
+              <c:f>Leonardo!$G$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -935,7 +1041,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$38</c:f>
+              <c:f>Leonardo!$B$16:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1013,7 +1119,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$16:$G$38</c:f>
+              <c:f>Leonardo!$G$16:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1101,7 +1207,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$15</c:f>
+              <c:f>Leonardo!$H$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1136,7 +1242,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$B$38</c:f>
+              <c:f>Leonardo!$B$16:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -1214,7 +1320,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$16:$H$38</c:f>
+              <c:f>Leonardo!$H$16:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
@@ -2411,17 +2517,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00263F9-C8C7-42DF-8462-CEECFF97E7F1}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2462,7 +2568,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2503,7 +2609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2547,7 +2653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2588,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2629,7 +2735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2670,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2711,7 +2817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2752,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2793,7 +2899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -2837,7 +2943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2890,12 +2996,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F14">
         <v>0.5</v>
       </c>
@@ -2906,7 +3012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2926,7 +3032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>-1024</v>
       </c>
@@ -2947,7 +3053,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>-512</v>
       </c>
@@ -2968,7 +3074,7 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>-256</v>
       </c>
@@ -2989,7 +3095,7 @@
         <v>-6.25E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>-128</v>
       </c>
@@ -3010,7 +3116,7 @@
         <v>-1.5625E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>-64</v>
       </c>
@@ -3031,7 +3137,7 @@
         <v>-3.90625E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>-32</v>
       </c>
@@ -3052,7 +3158,7 @@
         <v>-9.765625E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>-16</v>
       </c>
@@ -3061,11 +3167,11 @@
         <v>-1.5625E-2</v>
       </c>
       <c r="F22">
-        <f t="shared" ref="F22:F27" si="8">-((-C22)^$F$14)</f>
+        <f t="shared" ref="F22:F26" si="8">-((-C22)^$F$14)</f>
         <v>-0.125</v>
       </c>
       <c r="G22">
-        <f t="shared" ref="G22:G27" si="9">-(-C22^$G$14)</f>
+        <f t="shared" ref="G22:G26" si="9">-(-C22^$G$14)</f>
         <v>-0.35355339059327379</v>
       </c>
       <c r="H22">
@@ -3073,7 +3179,7 @@
         <v>-2.44140625E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>-8</v>
       </c>
@@ -3094,7 +3200,7 @@
         <v>-6.103515625E-5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>-4</v>
       </c>
@@ -3115,7 +3221,7 @@
         <v>-1.52587890625E-5</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-2</v>
       </c>
@@ -3139,7 +3245,7 @@
         <v>-3.814697265625E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-1</v>
       </c>
@@ -3163,7 +3269,7 @@
         <v>-9.5367431640625E-7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>0</v>
       </c>
@@ -3180,11 +3286,11 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" ref="H21:H27" si="10">C27^$H$14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H27" si="10">C27^$H$14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -3209,7 +3315,7 @@
         <v>9.5367431640625E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -3234,7 +3340,7 @@
         <v>3.814697265625E-6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3259,7 +3365,7 @@
         <v>1.52587890625E-5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -3284,7 +3390,7 @@
         <v>6.103515625E-5</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -3309,7 +3415,7 @@
         <v>2.44140625E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -3334,7 +3440,7 @@
         <v>9.765625E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6</v>
       </c>
@@ -3359,7 +3465,7 @@
         <v>3.90625E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7</v>
       </c>
@@ -3384,7 +3490,7 @@
         <v>1.5625E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8</v>
       </c>
@@ -3409,7 +3515,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -3434,7 +3540,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -3473,4 +3579,830 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2919528-146A-CE47-841B-7E3C7B7F9F62}">
+  <dimension ref="A1:Q21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1">
+        <v>72</v>
+      </c>
+      <c r="D1" s="1">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1">
+        <v>71</v>
+      </c>
+      <c r="F1" s="1">
+        <v>70</v>
+      </c>
+      <c r="G1" s="1">
+        <v>70</v>
+      </c>
+      <c r="H1" s="1">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1">
+        <v>68</v>
+      </c>
+      <c r="J1" s="1">
+        <v>67</v>
+      </c>
+      <c r="K1" s="1">
+        <v>66</v>
+      </c>
+      <c r="L1" s="1">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1">
+        <v>64</v>
+      </c>
+      <c r="N1" s="1">
+        <v>63</v>
+      </c>
+      <c r="O1" s="1">
+        <v>62</v>
+      </c>
+      <c r="P1" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1">
+        <f>B3*1+B4*2+B5*4+B6*8+B7*16+B8*32+B9*64+B10*128+B11*256+B12*512</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:P13" si="0">C3*1+C4*2+C5*4+C6*8+C7*16+C8*32+C9*64+C10*128+C11*256+C12*512</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>259</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="M13" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="N13" s="1">
+        <f t="shared" si="0"/>
+        <v>247</v>
+      </c>
+      <c r="O13" s="1">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="P13" s="1">
+        <f t="shared" si="0"/>
+        <v>631</v>
+      </c>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1000</v>
+      </c>
+      <c r="B18">
+        <v>10000</v>
+      </c>
+      <c r="C18">
+        <f>3.3*(B18/(A18+B18))</f>
+        <v>2.9999999999999996</v>
+      </c>
+      <c r="D18">
+        <f>1024*C18/3.3</f>
+        <v>930.90909090909088</v>
+      </c>
+      <c r="E18">
+        <f>(D18+D19)/2</f>
+        <v>721.4545454545455</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>10000</v>
+      </c>
+      <c r="B19">
+        <f>B18</f>
+        <v>10000</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:C20" si="1">3.3*(B19/(A19+B19))</f>
+        <v>1.65</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:D20" si="2">1024*C19/3.3</f>
+        <v>512</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E21" si="3">(D19+D20)/2</f>
+        <v>302.54545454545456</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>100000</v>
+      </c>
+      <c r="B20">
+        <f>B19</f>
+        <v>10000</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>93.090909090909093</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>46.545454545454547</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:P12">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MIDI_Sax/Sax_details.xlsx
+++ b/MIDI_Sax/Sax_details.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tim/Documents/GitHub/DIY-Projects/MIDI_Sax/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96FC5E2-BD7F-B343-A092-2E52F992EE1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C0339B-F05F-824E-A812-D35DDDC29C4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="460" windowWidth="22840" windowHeight="15540" activeTab="1" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
+    <workbookView xWindow="2400" yWindow="460" windowWidth="22840" windowHeight="15540" activeTab="2" xr2:uid="{37DECD7E-2A26-408F-B389-C3EB14E31A56}"/>
   </bookViews>
   <sheets>
     <sheet name="Leonardo" sheetId="1" r:id="rId1"/>
     <sheet name="Doppler" sheetId="2" r:id="rId2"/>
+    <sheet name="BOM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="55">
   <si>
     <t>C#</t>
   </si>
@@ -158,6 +159,48 @@
   </si>
   <si>
     <t>Octave Adjust</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>Cost / item</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Breath Pressure Sensor</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>NXP</t>
+  </si>
+  <si>
+    <t>MP3V-5004G-C6U</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>Thru-hole</t>
+  </si>
+  <si>
+    <t>https://au.element14.com/nxp/mp3v5004gc6u/pressure-sensor-3-92kpa-0-to-85deg/dp/3370172?st=mp3v%205004g</t>
+  </si>
+  <si>
+    <t>MP3V-5004G-C7U</t>
   </si>
 </sst>
 </file>
@@ -222,7 +265,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -240,16 +283,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3585,7 +3618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2919528-146A-CE47-841B-7E3C7B7F9F62}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -4396,13 +4429,107 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:P12">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250F6131-CF93-3347-A38E-D68F81AD74C7}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>21.36</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>D2*E2</f>
+        <v>21.36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>D3*E3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>